--- a/figure_other/PreviousFrameworksTable/PreviousFrameworksTable.xlsx
+++ b/figure_other/PreviousFrameworksTable/PreviousFrameworksTable.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/ReboundPaper2019/figure_other/PreviousFrameworksTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE048E10-5171-F441-8413-1F1FC60C6DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDCB658-F3CD-DA40-B4FD-81B5C8690050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{C9D6D6FC-3C62-9944-B8A9-2DC0ED959D63}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="3rd draft" sheetId="1" r:id="rId1"/>
+    <sheet name="2nd draft" sheetId="3" r:id="rId2"/>
+    <sheet name="1 - first draft" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="31">
   <si>
     <t>3 planes (energy, expenditure, consumption)</t>
   </si>
@@ -58,13 +60,73 @@
   </si>
   <si>
     <t>Chan &amp; Gillingham (2015)</t>
+  </si>
+  <si>
+    <t>Direct emplacement effect</t>
+  </si>
+  <si>
+    <t>Maintenance and disposal effect</t>
+  </si>
+  <si>
+    <t>Embodied energy effect</t>
+  </si>
+  <si>
+    <t>Direct substitution effect</t>
+  </si>
+  <si>
+    <t>Indirect substitution effect</t>
+  </si>
+  <si>
+    <t>Direct income effect</t>
+  </si>
+  <si>
+    <t>Indirect income effect</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Expenditure</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Macro effect</t>
+  </si>
+  <si>
+    <t>Marginal energy service price changes</t>
+  </si>
+  <si>
+    <t>Incomplete model of consumer preferences</t>
+  </si>
+  <si>
+    <t>Microeconomic scale</t>
+  </si>
+  <si>
+    <t>Macroeconomic scale</t>
+  </si>
+  <si>
+    <t>◯</t>
+  </si>
+  <si>
+    <t>3 planes</t>
+  </si>
+  <si>
+    <t>Effects, locations, scales</t>
+  </si>
+  <si>
+    <t>〇</t>
+  </si>
+  <si>
+    <t>•</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -72,16 +134,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -122,11 +204,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -146,6 +237,58 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,9 +604,535 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28389667-8FCC-8249-B136-35C4DFCCD06F}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="7.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21"/>
+      <c r="B1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D22C81A-093F-5E42-8811-274C2138567B}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.5" customWidth="1"/>
+    <col min="2" max="5" width="7.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9482D170-3BE1-A84C-884E-91AFC62BA959}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>

--- a/figure_other/PreviousFrameworksTable/PreviousFrameworksTable.xlsx
+++ b/figure_other/PreviousFrameworksTable/PreviousFrameworksTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/ReboundPaper2019/figure_other/PreviousFrameworksTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDCB658-F3CD-DA40-B4FD-81B5C8690050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B488FAB7-4DDB-5445-98A6-519563D78CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{C9D6D6FC-3C62-9944-B8A9-2DC0ED959D63}"/>
   </bookViews>
@@ -607,7 +607,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
